--- a/User References.xlsx
+++ b/User References.xlsx
@@ -1,51 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="-80" windowWidth="34400" windowHeight="20940" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="130407" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>The constructor Aim(String, String, String, String, String, String, String, String, String, String, int, User, String, String, String, String, String) is undefined</t>
-  </si>
-  <si>
-    <t>The method addUser(User) in the type Annotation is not applicable for the arguments (User)</t>
-  </si>
-  <si>
-    <t>The method getLoginName() is undefined for the type User</t>
-  </si>
-  <si>
-    <t>The method getName() is undefined for the type User</t>
-  </si>
-  <si>
-    <t>The method setCagridId(int) is undefined for the type User</t>
-  </si>
-  <si>
-    <t>The method setLoginName(String) is undefined for the type User</t>
-  </si>
-  <si>
-    <t>The method setName(String) is undefined for the type User</t>
-  </si>
-  <si>
-    <t>Type mismatch: cannot convert from edu.stanford_usp.shared.aimapi.User to edu.stanford.hakan.aim3api.base.User</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>The method getLoginName() User</t>
+  </si>
+  <si>
+    <t>The method getName() User</t>
+  </si>
+  <si>
+    <t>The method setCagridId(int) User</t>
+  </si>
+  <si>
+    <t>The method setLoginName(String) User</t>
+  </si>
+  <si>
+    <t>The method setName(String) User</t>
+  </si>
+  <si>
+    <t>GETTERS</t>
+  </si>
+  <si>
+    <t>SETTERS</t>
+  </si>
+  <si>
+    <t>Used in Epad
+(Y/N)</t>
   </si>
 </sst>
 </file>
@@ -54,20 +49,45 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="2">
     <font>
-      <sz val="10"/>
-      <name val="Verdana"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Verdana"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -82,14 +102,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -236,16 +267,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -367,188 +402,92 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:A24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="30">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <sortState ref="A1:A24">
+    <sortCondition descending="1" ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>